--- a/sharedata/exceldata/excel/all/X-限时活动表.xlsx
+++ b/sharedata/exceldata/excel/all/X-限时活动表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32700" windowHeight="15444" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32700" windowHeight="15444"/>
   </bookViews>
   <sheets>
     <sheet name="限时活动" sheetId="10" r:id="rId1"/>
@@ -874,11 +874,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="I7" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1485,7 +1485,7 @@
         <v>83</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>85</v>
@@ -1508,7 +1508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>

--- a/sharedata/exceldata/excel/all/X-限时活动表.xlsx
+++ b/sharedata/exceldata/excel/all/X-限时活动表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32700" windowHeight="15444"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32700" windowHeight="15276"/>
   </bookViews>
   <sheets>
     <sheet name="限时活动" sheetId="10" r:id="rId1"/>
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="87">
+  <si>
+    <t>最多4个</t>
+  </si>
   <si>
     <t>备注信息</t>
   </si>
@@ -211,97 +214,80 @@
     <t>活动兑换</t>
   </si>
   <si>
+    <t>FestivalExchange</t>
+  </si>
+  <si>
+    <t>充值抽奖</t>
+  </si>
+  <si>
+    <t>RechargeDraw</t>
+  </si>
+  <si>
+    <t>贯彻爱与真实的邪恶</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>豪华签到</t>
+  </si>
+  <si>
+    <t>RechargeActivity6</t>
+  </si>
+  <si>
+    <t>豪华签到活动</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>限时累充</t>
+  </si>
+  <si>
+    <t>RechargeActivity7</t>
+  </si>
+  <si>
+    <t>限时累充活动</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>每日礼包</t>
+  </si>
+  <si>
+    <t>RechargeActivity8</t>
+  </si>
+  <si>
+    <t>TLActivityTypeData</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>欢庆佳节</t>
-  </si>
-  <si>
-    <t>FestivalExchange</t>
-  </si>
-  <si>
-    <t>充值抽奖</t>
-  </si>
-  <si>
-    <t>RechargeDraw</t>
-  </si>
-  <si>
-    <t>贯彻爱与真实的邪恶</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>豪华签到</t>
-  </si>
-  <si>
-    <t>RechargeActivity6</t>
-  </si>
-  <si>
-    <t>豪华签到活动</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>限时累充</t>
-  </si>
-  <si>
-    <t>RechargeActivity7</t>
-  </si>
-  <si>
-    <t>限时累充活动</t>
-  </si>
-  <si>
-    <t>TLActivityTypeData</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>最多5个</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>13</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日礼包</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日礼包</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>RechargeActivity8</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日礼包</t>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -320,6 +306,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -327,20 +319,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -353,7 +333,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -363,15 +357,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -384,25 +376,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79992065187536243"/>
+        <fgColor theme="6" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,6 +395,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,6 +450,15 @@
       <diagonal/>
     </border>
     <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -468,51 +469,42 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" applyFill="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" applyFill="0">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -538,19 +530,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -875,10 +870,10 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="6" topLeftCell="J7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -906,7 +901,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -933,165 +928,165 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="H5" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" s="12"/>
+        <v>27</v>
+      </c>
+      <c r="N5" s="13"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N6" s="12"/>
+        <v>38</v>
+      </c>
+      <c r="N6" s="13"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -1099,25 +1094,25 @@
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -1130,27 +1125,27 @@
         <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10" t="s">
-        <v>42</v>
+        <v>9</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
@@ -1161,27 +1156,27 @@
         <v>3</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10" t="s">
-        <v>46</v>
+        <v>9</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -1192,28 +1187,28 @@
         <v>4</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M10" s="4"/>
     </row>
@@ -1223,30 +1218,30 @@
         <v>5</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J11" s="4"/>
-      <c r="K11" s="10"/>
+      <c r="K11" s="11"/>
       <c r="L11" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="M11" s="10"/>
+        <v>55</v>
+      </c>
+      <c r="M11" s="11"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
@@ -1254,30 +1249,30 @@
         <v>6</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J12" s="4"/>
-      <c r="K12" s="10"/>
+      <c r="K12" s="11"/>
       <c r="L12" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="M12" s="10"/>
+        <v>57</v>
+      </c>
+      <c r="M12" s="11"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
@@ -1285,30 +1280,30 @@
         <v>7</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J13" s="4"/>
-      <c r="K13" s="10"/>
+      <c r="K13" s="11"/>
       <c r="L13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M13" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="M13" s="11"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
@@ -1316,33 +1311,33 @@
         <v>8</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10" t="s">
         <v>63</v>
+      </c>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="14" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1351,29 +1346,29 @@
         <v>9</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>64</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J15" s="4"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10" t="s">
-        <v>63</v>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="14" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1391,23 +1386,23 @@
         <v>65</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>66</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I16" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="12" t="s">
         <v>65</v>
       </c>
       <c r="J16" s="4"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10" t="s">
+      <c r="K16" s="11"/>
+      <c r="L16" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="M16" s="10"/>
+      <c r="M16" s="11"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
@@ -1424,21 +1419,21 @@
         <v>69</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>70</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J17" s="4"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10" t="s">
+      <c r="K17" s="11"/>
+      <c r="L17" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="M17" s="10"/>
+      <c r="M17" s="11"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
@@ -1455,50 +1450,50 @@
         <v>73</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>74</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J18" s="4"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10" t="s">
+      <c r="K18" s="11"/>
+      <c r="L18" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="M18" s="10"/>
+      <c r="M18" s="11"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>86</v>
+        <v>76</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -1535,43 +1530,43 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="3"/>
     </row>
@@ -1581,43 +1576,43 @@
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1631,17 +1626,17 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>